--- a/DataGridViewExport.xlsx
+++ b/DataGridViewExport.xlsx
@@ -14,7 +14,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <x:si>
+    <x:t>left</x:t>
+  </x:si>
+  <x:si>
+    <x:t>position</x:t>
+  </x:si>
+  <x:si>
+    <x:t>right</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GripOpen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GripRotation</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,12 +382,1613 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:J50"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData/>
+  <x:sheetData>
+    <x:row r="1" spans="1:10">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="n">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="n">
+        <x:v>-122</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:10">
+      <x:c r="A2" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="n">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="n">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:10">
+      <x:c r="A3" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="n">
+        <x:v>298.13</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="n">
+        <x:v>-288.11</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="n">
+        <x:v>156.28</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:10">
+      <x:c r="A4" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:10">
+      <x:c r="A5" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="n">
+        <x:v>175.87</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:10">
+      <x:c r="A6" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="n">
+        <x:v>139.78</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:10">
+      <x:c r="A7" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="n">
+        <x:v>111.21</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:10">
+      <x:c r="A8" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="n">
+        <x:v>80.19</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:10">
+      <x:c r="A9" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="n">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="A10" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:10">
+      <x:c r="A11" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="n">
+        <x:v>163.58</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:10">
+      <x:c r="A12" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="n">
+        <x:v>530.83</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="n">
+        <x:v>-87.55</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="n">
+        <x:v>154.16</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:10">
+      <x:c r="A13" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:10">
+      <x:c r="A14" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="n">
+        <x:v>160.58</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:10">
+      <x:c r="A15" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="n">
+        <x:v>130.27</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:10">
+      <x:c r="A16" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="n">
+        <x:v>104.75</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:10">
+      <x:c r="A17" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="n">
+        <x:v>93.91</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:10">
+      <x:c r="A18" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J18" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:10">
+      <x:c r="A19" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="n">
+        <x:v>187.9</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J19" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:10">
+      <x:c r="A20" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="n">
+        <x:v>402.75</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="n">
+        <x:v>-319.93</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="n">
+        <x:v>154.69</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J20" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:10">
+      <x:c r="A21" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J21" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:10">
+      <x:c r="A22" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="n">
+        <x:v>168.03</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J22" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:10">
+      <x:c r="A23" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="n">
+        <x:v>134.24</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J23" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:10">
+      <x:c r="A24" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="n">
+        <x:v>109.02</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J24" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:10">
+      <x:c r="A25" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J25" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:10">
+      <x:c r="A26" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J26" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:10">
+      <x:c r="A27" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J27" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:10">
+      <x:c r="A28" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="n">
+        <x:v>176.53</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J28" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:10">
+      <x:c r="A29" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="n">
+        <x:v>538.66</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="n">
+        <x:v>-188.09</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="n">
+        <x:v>154.6</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J29" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:10">
+      <x:c r="A30" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J30" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:10">
+      <x:c r="A31" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="n">
+        <x:v>166.64</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J31" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:10">
+      <x:c r="A32" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="n">
+        <x:v>145.94</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I32" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J32" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:10">
+      <x:c r="A33" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="n">
+        <x:v>128.14</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J33" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:10">
+      <x:c r="A34" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="n">
+        <x:v>111.42</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J34" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:10">
+      <x:c r="A35" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="n">
+        <x:v>97.34</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J35" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:10">
+      <x:c r="A36" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J36" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:10">
+      <x:c r="A37" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J37" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:10">
+      <x:c r="A38" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J38" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:10">
+      <x:c r="A39" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I39" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J39" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:10">
+      <x:c r="A40" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J40" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:10">
+      <x:c r="A41" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J41" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:10">
+      <x:c r="A42" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J42" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:10">
+      <x:c r="A43" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="n">
+        <x:v>90.47</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J43" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:10">
+      <x:c r="A44" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="n">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="n">
+        <x:v>132.08</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J44" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:10">
+      <x:c r="A45" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="n">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="n">
+        <x:v>175.17</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J45" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:10">
+      <x:c r="A46" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="n">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="n">
+        <x:v>167.1</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J46" s="0" t="n">
+        <x:v>-270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:10">
+      <x:c r="A47" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="n">
+        <x:v>539.36</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="n">
+        <x:v>-188.7</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="n">
+        <x:v>154.52</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J47" s="0" t="n">
+        <x:v>-270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:10">
+      <x:c r="A48" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="n">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J48" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:10">
+      <x:c r="A49" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="n">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:10">
+      <x:c r="A50" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="n">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="n">
+        <x:v>174.75</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J50" s="0" t="n">
+        <x:v>-270</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/DataGridViewExport.xlsx
+++ b/DataGridViewExport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <x:si>
     <x:t>left</x:t>
   </x:si>
@@ -32,6 +32,9 @@
   </x:si>
   <x:si>
     <x:t>GripRotation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GripClose</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -382,7 +385,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J50"/>
+  <x:dimension ref="A1:J133"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -466,13 +469,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>298.13</x:v>
+        <x:v>299.33</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>-288.11</x:v>
+        <x:v>-284.79</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
-        <x:v>156.28</x:v>
+        <x:v>156.05</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
         <x:v>180</x:v>
@@ -536,7 +539,7 @@
         <x:v>-291</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
-        <x:v>175.87</x:v>
+        <x:v>164.66</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
         <x:v>180</x:v>
@@ -568,7 +571,7 @@
         <x:v>-291</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>139.78</x:v>
+        <x:v>130.61</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
         <x:v>180</x:v>
@@ -600,7 +603,7 @@
         <x:v>-291</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>111.21</x:v>
+        <x:v>102.15</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
         <x:v>180</x:v>
@@ -632,7 +635,7 @@
         <x:v>-291</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
-        <x:v>80.19</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
         <x:v>180</x:v>
@@ -655,25 +658,25 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>536</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>-291</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J9" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10">
@@ -687,25 +690,25 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-291</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>154.85</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10">
@@ -716,19 +719,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>536</x:v>
+        <x:v>528.17</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>-291</x:v>
+        <x:v>-91.74</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
-        <x:v>163.58</x:v>
+        <x:v>157.98</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
         <x:v>180</x:v>
@@ -754,13 +757,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>530.83</x:v>
+        <x:v>528.57</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>-87.55</x:v>
+        <x:v>-88.42</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
-        <x:v>154.16</x:v>
+        <x:v>157.77</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
         <x:v>180</x:v>
@@ -824,7 +827,7 @@
         <x:v>-291</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
-        <x:v>160.58</x:v>
+        <x:v>164.34</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
         <x:v>180</x:v>
@@ -856,7 +859,7 @@
         <x:v>-291</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
-        <x:v>130.27</x:v>
+        <x:v>122.66</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
         <x:v>180</x:v>
@@ -888,7 +891,7 @@
         <x:v>-291</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
-        <x:v>104.75</x:v>
+        <x:v>92.06</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
         <x:v>180</x:v>
@@ -911,25 +914,25 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>536</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>-291</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
-        <x:v>93.91</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J17" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:10">
@@ -943,25 +946,25 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-291</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>153.74</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="I18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J18" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10">
@@ -972,19 +975,19 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>536</x:v>
+        <x:v>395.23</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>-291</x:v>
+        <x:v>-316.78</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
-        <x:v>187.9</x:v>
+        <x:v>152.79</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
         <x:v>180</x:v>
@@ -1007,25 +1010,25 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>402.75</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>-319.93</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G20" s="0" t="n">
-        <x:v>154.69</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H20" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I20" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J20" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:10">
@@ -1036,28 +1039,28 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-291</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>165.72</x:v>
       </x:c>
       <x:c r="H21" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="I21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J21" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:10">
@@ -1080,7 +1083,7 @@
         <x:v>-291</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
-        <x:v>168.03</x:v>
+        <x:v>127.13</x:v>
       </x:c>
       <x:c r="H22" s="0" t="n">
         <x:v>180</x:v>
@@ -1112,7 +1115,7 @@
         <x:v>-291</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
-        <x:v>134.24</x:v>
+        <x:v>110.09</x:v>
       </x:c>
       <x:c r="H23" s="0" t="n">
         <x:v>180</x:v>
@@ -1144,7 +1147,7 @@
         <x:v>-291</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
-        <x:v>109.02</x:v>
+        <x:v>87.6</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
         <x:v>180</x:v>
@@ -1199,25 +1202,25 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>536</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>-291</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:10">
@@ -1231,25 +1234,25 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-291</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>162.41</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:10">
@@ -1272,7 +1275,7 @@
         <x:v>-291</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
-        <x:v>176.53</x:v>
+        <x:v>161.12</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
         <x:v>180</x:v>
@@ -1298,13 +1301,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>538.66</x:v>
+        <x:v>540.37</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>-188.09</x:v>
+        <x:v>-188.71</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
-        <x:v>154.6</x:v>
+        <x:v>157.39</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
         <x:v>180</x:v>
@@ -1368,7 +1371,7 @@
         <x:v>-291</x:v>
       </x:c>
       <x:c r="G31" s="0" t="n">
-        <x:v>166.64</x:v>
+        <x:v>160.09</x:v>
       </x:c>
       <x:c r="H31" s="0" t="n">
         <x:v>180</x:v>
@@ -1400,7 +1403,7 @@
         <x:v>-291</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
-        <x:v>145.94</x:v>
+        <x:v>135.85</x:v>
       </x:c>
       <x:c r="H32" s="0" t="n">
         <x:v>180</x:v>
@@ -1432,7 +1435,7 @@
         <x:v>-291</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
-        <x:v>128.14</x:v>
+        <x:v>103.64</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
         <x:v>180</x:v>
@@ -1464,7 +1467,7 @@
         <x:v>-291</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
-        <x:v>111.42</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
         <x:v>180</x:v>
@@ -1496,7 +1499,7 @@
         <x:v>-291</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
-        <x:v>97.34</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H35" s="0" t="n">
         <x:v>180</x:v>
@@ -1522,7 +1525,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>536</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>-291</x:v>
@@ -1537,7 +1540,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J36" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:10">
@@ -1554,7 +1557,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>536</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>-291</x:v>
@@ -1569,7 +1572,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:10">
@@ -1586,7 +1589,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>536</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>-291</x:v>
@@ -1601,7 +1604,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J38" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:10">
@@ -1624,7 +1627,7 @@
         <x:v>-291</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>84.78</x:v>
       </x:c>
       <x:c r="H39" s="0" t="n">
         <x:v>180</x:v>
@@ -1656,7 +1659,7 @@
         <x:v>-291</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>126.19</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
         <x:v>180</x:v>
@@ -1688,7 +1691,7 @@
         <x:v>-291</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>165.18</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
         <x:v>180</x:v>
@@ -1714,13 +1717,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>538</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
         <x:v>-291</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>161.1</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
         <x:v>180</x:v>
@@ -1729,7 +1732,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J42" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>-270</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:10">
@@ -1740,19 +1743,19 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="C43" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>538</x:v>
+        <x:v>541.58</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>-291</x:v>
+        <x:v>-190.72</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
-        <x:v>90.47</x:v>
+        <x:v>156.05</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
         <x:v>180</x:v>
@@ -1761,7 +1764,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J43" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>-270</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:10">
@@ -1772,28 +1775,28 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>538</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>-291</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
-        <x:v>132.08</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J44" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:10">
@@ -1804,28 +1807,28 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>538</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>-291</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
-        <x:v>175.17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H45" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J45" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:10">
@@ -1848,7 +1851,7 @@
         <x:v>-291</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
-        <x:v>167.1</x:v>
+        <x:v>158.79</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
         <x:v>180</x:v>
@@ -1868,19 +1871,19 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="C47" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>539.36</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>-188.7</x:v>
+        <x:v>-291</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
-        <x:v>154.52</x:v>
+        <x:v>159.69</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
         <x:v>180</x:v>
@@ -1889,7 +1892,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J47" s="0" t="n">
-        <x:v>-270</x:v>
+        <x:v>179.99999</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:10">
@@ -1900,28 +1903,28 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-291</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="I48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>179.99999</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10">
@@ -1932,7 +1935,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
         <x:v>4</x:v>
@@ -1967,25 +1970,2681 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J50" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:10">
+      <x:c r="A51" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="n">
+        <x:v>433.01</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="n">
+        <x:v>67.4</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="n">
+        <x:v>382.9</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J51" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:10">
+      <x:c r="A52" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="n">
+        <x:v>466.38</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="n">
+        <x:v>72.57</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="n">
+        <x:v>385.04</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J52" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:10">
+      <x:c r="A53" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="n">
+        <x:v>-29.28</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I53" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J53" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:10">
+      <x:c r="A54" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="n">
+        <x:v>-67.75</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J54" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:10">
+      <x:c r="A55" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="n">
+        <x:v>-110.15</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J55" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:10">
+      <x:c r="A56" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="n">
+        <x:v>-159.35</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J56" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:10">
+      <x:c r="A57" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="n">
+        <x:v>-197.57</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I57" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J57" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:10">
+      <x:c r="A58" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="n">
+        <x:v>-237.97</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J58" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:10">
+      <x:c r="A59" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="n">
+        <x:v>-263.07</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I59" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J59" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:10">
+      <x:c r="A60" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="n">
+        <x:v>-161.28</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I60" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J60" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:10">
+      <x:c r="A61" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="n">
+        <x:v>-60.46</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I61" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J61" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:10">
+      <x:c r="A62" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E62" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F62" s="0" t="n">
+        <x:v>-68.51</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I62" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J62" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:10">
+      <x:c r="A63" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F63" s="0" t="n">
+        <x:v>-69.79</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H63" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I63" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J63" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:10">
+      <x:c r="A64" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F64" s="0" t="n">
+        <x:v>-71.72</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H64" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I64" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J64" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:10">
+      <x:c r="A65" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F65" s="0" t="n">
+        <x:v>-72.46</x:v>
+      </x:c>
+      <x:c r="G65" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H65" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I65" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J65" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:10">
+      <x:c r="A66" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E66" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F66" s="0" t="n">
+        <x:v>-72.4</x:v>
+      </x:c>
+      <x:c r="G66" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H66" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I66" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J66" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:10">
+      <x:c r="A67" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E67" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F67" s="0" t="n">
+        <x:v>-73.07</x:v>
+      </x:c>
+      <x:c r="G67" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H67" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I67" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J67" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:10">
+      <x:c r="A68" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D68" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E68" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F68" s="0" t="n">
+        <x:v>-73.73</x:v>
+      </x:c>
+      <x:c r="G68" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H68" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I68" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J68" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:10">
+      <x:c r="A69" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E69" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F69" s="0" t="n">
+        <x:v>-73.89</x:v>
+      </x:c>
+      <x:c r="G69" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H69" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I69" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J69" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:10">
+      <x:c r="A70" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E70" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F70" s="0" t="n">
+        <x:v>-73.95</x:v>
+      </x:c>
+      <x:c r="G70" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H70" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I70" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J70" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:10">
+      <x:c r="A71" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="n">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E71" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F71" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G71" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H71" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I71" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J71" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:10">
+      <x:c r="A72" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C72" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D72" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E72" s="0" t="n">
         <x:v>536</x:v>
       </x:c>
-      <x:c r="F50" s="0" t="n">
-        <x:v>-291</x:v>
-      </x:c>
-      <x:c r="G50" s="0" t="n">
-        <x:v>174.75</x:v>
-      </x:c>
-      <x:c r="H50" s="0" t="n">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="I50" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J50" s="0" t="n">
+      <x:c r="F72" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G72" s="0" t="n">
+        <x:v>163.77</x:v>
+      </x:c>
+      <x:c r="H72" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I72" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J72" s="0" t="n">
+        <x:v>179.99999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:10">
+      <x:c r="A73" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="n">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D73" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E73" s="0" t="n">
+        <x:v>535.8</x:v>
+      </x:c>
+      <x:c r="F73" s="0" t="n">
+        <x:v>-290.72</x:v>
+      </x:c>
+      <x:c r="G73" s="0" t="n">
+        <x:v>158.83</x:v>
+      </x:c>
+      <x:c r="H73" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J73" s="0" t="n">
         <x:v>-270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:10">
+      <x:c r="A74" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="n">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E74" s="0" t="n">
+        <x:v>541.4</x:v>
+      </x:c>
+      <x:c r="F74" s="0" t="n">
+        <x:v>-187.16</x:v>
+      </x:c>
+      <x:c r="G74" s="0" t="n">
+        <x:v>156.25</x:v>
+      </x:c>
+      <x:c r="H74" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I74" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J74" s="0" t="n">
+        <x:v>-270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:10">
+      <x:c r="A75" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:10">
+      <x:c r="A76" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="n">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E76" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F76" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G76" s="0" t="n">
+        <x:v>158.67</x:v>
+      </x:c>
+      <x:c r="H76" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J76" s="0" t="n">
+        <x:v>-270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:10">
+      <x:c r="A77" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="n">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E77" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F77" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G77" s="0" t="n">
+        <x:v>160.77</x:v>
+      </x:c>
+      <x:c r="H77" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J77" s="0" t="n">
+        <x:v>179.99999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:10">
+      <x:c r="A78" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="n">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E78" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F78" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G78" s="0" t="n">
+        <x:v>141.9</x:v>
+      </x:c>
+      <x:c r="H78" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I78" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J78" s="0" t="n">
+        <x:v>179.99999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:10">
+      <x:c r="A79" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E79" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F79" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G79" s="0" t="n">
+        <x:v>123.99</x:v>
+      </x:c>
+      <x:c r="H79" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I79" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J79" s="0" t="n">
+        <x:v>179.99999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:10">
+      <x:c r="A80" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="n">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C80" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D80" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E80" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F80" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G80" s="0" t="n">
+        <x:v>106.4</x:v>
+      </x:c>
+      <x:c r="H80" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I80" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J80" s="0" t="n">
+        <x:v>179.99999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:10">
+      <x:c r="A81" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C81" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D81" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E81" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F81" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G81" s="0" t="n">
+        <x:v>87.21</x:v>
+      </x:c>
+      <x:c r="H81" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I81" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J81" s="0" t="n">
+        <x:v>179.99999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:10">
+      <x:c r="A82" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C82" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D82" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E82" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F82" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G82" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H82" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I82" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J82" s="0" t="n">
+        <x:v>179.99999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:10">
+      <x:c r="A83" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="n">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C83" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D83" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E83" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F83" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G83" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H83" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I83" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J83" s="0" t="n">
+        <x:v>179.99999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:10">
+      <x:c r="A84" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="n">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C84" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D84" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E84" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F84" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G84" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H84" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I84" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J84" s="0" t="n">
+        <x:v>179.99999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:10">
+      <x:c r="A85" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="n">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C85" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D85" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E85" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F85" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G85" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H85" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I85" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J85" s="0" t="n">
+        <x:v>-270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:10">
+      <x:c r="A86" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="n">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C86" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D86" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E86" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F86" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G86" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H86" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I86" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J86" s="0" t="n">
+        <x:v>-270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:10">
+      <x:c r="A87" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="n">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D87" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E87" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F87" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G87" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H87" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I87" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J87" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:10">
+      <x:c r="A88" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="n">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C88" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D88" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E88" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F88" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G88" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H88" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I88" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J88" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:10">
+      <x:c r="A89" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="n">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C89" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D89" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E89" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F89" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G89" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H89" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I89" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J89" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:10">
+      <x:c r="A90" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="n">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C90" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D90" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E90" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F90" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G90" s="0" t="n">
+        <x:v>88.31</x:v>
+      </x:c>
+      <x:c r="H90" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I90" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J90" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:10">
+      <x:c r="A91" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="n">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C91" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D91" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E91" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F91" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G91" s="0" t="n">
+        <x:v>122.5</x:v>
+      </x:c>
+      <x:c r="H91" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I91" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J91" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:10">
+      <x:c r="A92" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C92" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D92" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E92" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F92" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G92" s="0" t="n">
+        <x:v>159.34</x:v>
+      </x:c>
+      <x:c r="H92" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I92" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J92" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:10">
+      <x:c r="A93" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="n">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C93" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D93" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E93" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F93" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G93" s="0" t="n">
+        <x:v>154.77</x:v>
+      </x:c>
+      <x:c r="H93" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I93" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J93" s="0" t="n">
+        <x:v>89.999992370605</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:10">
+      <x:c r="A94" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="n">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C94" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D94" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E94" s="0" t="n">
+        <x:v>539.37</x:v>
+      </x:c>
+      <x:c r="F94" s="0" t="n">
+        <x:v>-187.24</x:v>
+      </x:c>
+      <x:c r="G94" s="0" t="n">
+        <x:v>156.79</x:v>
+      </x:c>
+      <x:c r="H94" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I94" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J94" s="0" t="n">
+        <x:v>89.999992370605</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:10">
+      <x:c r="A95" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="n">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C95" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D95" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E95" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F95" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G95" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H95" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I95" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J95" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:10">
+      <x:c r="A96" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C96" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D96" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E96" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F96" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G96" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H96" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I96" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J96" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:10">
+      <x:c r="A97" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="n">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E97" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F97" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G97" s="0" t="n">
+        <x:v>161.17</x:v>
+      </x:c>
+      <x:c r="H97" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I97" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J97" s="0" t="n">
+        <x:v>89.999992370605</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:10">
+      <x:c r="A98" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="n">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D98" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E98" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F98" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G98" s="0" t="n">
+        <x:v>162.72</x:v>
+      </x:c>
+      <x:c r="H98" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I98" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J98" s="0" t="n">
+        <x:v>179.99999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:10">
+      <x:c r="A99" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="n">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C99" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D99" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E99" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F99" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G99" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H99" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I99" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J99" s="0" t="n">
+        <x:v>179.99999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:10">
+      <x:c r="A100" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="n">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C100" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D100" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E100" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F100" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G100" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H100" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I100" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J100" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:10">
+      <x:c r="A101" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="n">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C101" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D101" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E101" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F101" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G101" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H101" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I101" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J101" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:10">
+      <x:c r="A102" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C102" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D102" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E102" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F102" s="0" t="n">
+        <x:v>-70.09</x:v>
+      </x:c>
+      <x:c r="G102" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H102" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I102" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J102" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:10">
+      <x:c r="A103" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C103" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D103" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E103" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F103" s="0" t="n">
+        <x:v>-99.35</x:v>
+      </x:c>
+      <x:c r="G103" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H103" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I103" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J103" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:10">
+      <x:c r="A104" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B104" s="0" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C104" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D104" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E104" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F104" s="0" t="n">
+        <x:v>-119.85</x:v>
+      </x:c>
+      <x:c r="G104" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H104" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I104" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J104" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:10">
+      <x:c r="A105" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B105" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C105" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D105" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E105" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F105" s="0" t="n">
+        <x:v>-161.33</x:v>
+      </x:c>
+      <x:c r="G105" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H105" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I105" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J105" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:10">
+      <x:c r="A106" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B106" s="0" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C106" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D106" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E106" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F106" s="0" t="n">
+        <x:v>-178.11</x:v>
+      </x:c>
+      <x:c r="G106" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H106" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I106" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J106" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:10">
+      <x:c r="A107" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B107" s="0" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C107" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D107" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E107" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F107" s="0" t="n">
+        <x:v>-206.19</x:v>
+      </x:c>
+      <x:c r="G107" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H107" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I107" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J107" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:10">
+      <x:c r="A108" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B108" s="0" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C108" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D108" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E108" s="0" t="n">
+        <x:v>449.27</x:v>
+      </x:c>
+      <x:c r="F108" s="0" t="n">
+        <x:v>-224.52</x:v>
+      </x:c>
+      <x:c r="G108" s="0" t="n">
+        <x:v>174.21</x:v>
+      </x:c>
+      <x:c r="H108" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I108" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J108" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:10">
+      <x:c r="A109" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B109" s="0" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C109" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D109" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E109" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F109" s="0" t="n">
+        <x:v>-242.2</x:v>
+      </x:c>
+      <x:c r="G109" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H109" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I109" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J109" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:10">
+      <x:c r="A110" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B110" s="0" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C110" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D110" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E110" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F110" s="0" t="n">
+        <x:v>-254.15</x:v>
+      </x:c>
+      <x:c r="G110" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H110" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I110" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J110" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:10">
+      <x:c r="A111" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B111" s="0" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C111" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D111" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E111" s="0" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="F111" s="0" t="n">
+        <x:v>-67.32</x:v>
+      </x:c>
+      <x:c r="G111" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H111" s="0" t="n">
+        <x:v>180.000003415095</x:v>
+      </x:c>
+      <x:c r="I111" s="0" t="n">
+        <x:v>-3.121094E-13</x:v>
+      </x:c>
+      <x:c r="J111" s="0" t="n">
+        <x:v>-1.00000000031741E-05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:10">
+      <x:c r="A112" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B112" s="0" t="n">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C112" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D112" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E112" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F112" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G112" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H112" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I112" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J112" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:10">
+      <x:c r="A113" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B113" s="0" t="n">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C113" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D113" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E113" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F113" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G113" s="0" t="n">
+        <x:v>160.88</x:v>
+      </x:c>
+      <x:c r="H113" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I113" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J113" s="0" t="n">
+        <x:v>179.99999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:10">
+      <x:c r="A114" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B114" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C114" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D114" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E114" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F114" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G114" s="0" t="n">
+        <x:v>159.05</x:v>
+      </x:c>
+      <x:c r="H114" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I114" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J114" s="0" t="n">
+        <x:v>-270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:10">
+      <x:c r="A115" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B115" s="0" t="n">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C115" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D115" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E115" s="0" t="n">
+        <x:v>541.43</x:v>
+      </x:c>
+      <x:c r="F115" s="0" t="n">
+        <x:v>-186.72</x:v>
+      </x:c>
+      <x:c r="G115" s="0" t="n">
+        <x:v>157.27</x:v>
+      </x:c>
+      <x:c r="H115" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I115" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J115" s="0" t="n">
+        <x:v>-270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:10">
+      <x:c r="A116" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B116" s="0" t="n">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C116" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D116" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E116" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F116" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G116" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H116" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I116" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J116" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:10">
+      <x:c r="A117" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B117" s="0" t="n">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C117" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D117" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E117" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F117" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G117" s="0" t="n">
+        <x:v>159.52</x:v>
+      </x:c>
+      <x:c r="H117" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I117" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J117" s="0" t="n">
+        <x:v>-270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:10">
+      <x:c r="A118" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="n">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C118" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D118" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E118" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F118" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G118" s="0" t="n">
+        <x:v>159.63</x:v>
+      </x:c>
+      <x:c r="H118" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I118" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J118" s="0" t="n">
+        <x:v>179.99999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:10">
+      <x:c r="A119" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B119" s="0" t="n">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C119" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D119" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E119" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F119" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G119" s="0" t="n">
+        <x:v>142.9</x:v>
+      </x:c>
+      <x:c r="H119" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I119" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J119" s="0" t="n">
+        <x:v>179.99999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:10">
+      <x:c r="A120" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B120" s="0" t="n">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C120" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D120" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E120" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F120" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G120" s="0" t="n">
+        <x:v>122.68</x:v>
+      </x:c>
+      <x:c r="H120" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I120" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J120" s="0" t="n">
+        <x:v>179.99999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:10">
+      <x:c r="A121" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="n">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C121" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D121" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E121" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F121" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G121" s="0" t="n">
+        <x:v>107.66</x:v>
+      </x:c>
+      <x:c r="H121" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I121" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J121" s="0" t="n">
+        <x:v>179.99999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:10">
+      <x:c r="A122" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B122" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C122" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D122" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E122" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F122" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G122" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H122" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I122" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J122" s="0" t="n">
+        <x:v>179.99999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:10">
+      <x:c r="A123" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B123" s="0" t="n">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C123" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D123" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E123" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F123" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G123" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H123" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I123" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J123" s="0" t="n">
+        <x:v>179.99999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:10">
+      <x:c r="A124" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="n">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C124" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D124" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E124" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F124" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G124" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H124" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I124" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J124" s="0" t="n">
+        <x:v>179.99999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:10">
+      <x:c r="A125" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B125" s="0" t="n">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C125" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D125" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E125" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F125" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G125" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H125" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I125" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J125" s="0" t="n">
+        <x:v>-270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:10">
+      <x:c r="A126" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B126" s="0" t="n">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C126" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D126" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E126" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F126" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G126" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H126" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I126" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J126" s="0" t="n">
+        <x:v>-270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:10">
+      <x:c r="A127" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B127" s="0" t="n">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C127" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D127" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E127" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F127" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G127" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H127" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I127" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J127" s="0" t="n">
+        <x:v>-270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:10">
+      <x:c r="A128" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B128" s="0" t="n">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C128" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D128" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E128" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F128" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G128" s="0" t="n">
+        <x:v>93.03</x:v>
+      </x:c>
+      <x:c r="H128" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I128" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J128" s="0" t="n">
+        <x:v>-270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:10">
+      <x:c r="A129" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B129" s="0" t="n">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C129" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D129" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E129" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F129" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G129" s="0" t="n">
+        <x:v>121.45</x:v>
+      </x:c>
+      <x:c r="H129" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I129" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J129" s="0" t="n">
+        <x:v>-270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:10">
+      <x:c r="A130" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B130" s="0" t="n">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C130" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D130" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E130" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F130" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G130" s="0" t="n">
+        <x:v>162.4</x:v>
+      </x:c>
+      <x:c r="H130" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I130" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J130" s="0" t="n">
+        <x:v>-270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:10">
+      <x:c r="A131" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B131" s="0" t="n">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C131" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D131" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E131" s="0" t="n">
+        <x:v>538.97</x:v>
+      </x:c>
+      <x:c r="F131" s="0" t="n">
+        <x:v>-189.4</x:v>
+      </x:c>
+      <x:c r="G131" s="0" t="n">
+        <x:v>153.94</x:v>
+      </x:c>
+      <x:c r="H131" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I131" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J131" s="0" t="n">
+        <x:v>-270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:10">
+      <x:c r="A132" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C132" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D132" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E132" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F132" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G132" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H132" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I132" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J132" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:10">
+      <x:c r="A133" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B133" s="0" t="n">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C133" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D133" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E133" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F133" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G133" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H133" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I133" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J133" s="0" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/DataGridViewExport.xlsx
+++ b/DataGridViewExport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\碩論\MasterCode\ControlUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083FFFED-F92D-41AC-BE14-46CA03709CFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A25CC4-11A7-4A07-B48B-CEB4324BCBCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="8">
   <si>
     <t>left</t>
   </si>
@@ -41,6 +41,10 @@
   </si>
   <si>
     <t>GripClose</t>
+  </si>
+  <si>
+    <t>DownRotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -385,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J192"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J192"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,7 +1784,7 @@
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1934,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="B49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C49">
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1963,28 +1967,28 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B50">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>447.7</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>19.36</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>376.67</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -1998,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2007,13 +2011,13 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>433.01</v>
+        <v>449</v>
       </c>
       <c r="F51">
-        <v>67.400000000000006</v>
+        <v>-52.04</v>
       </c>
       <c r="G51">
-        <v>382.9</v>
+        <v>174</v>
       </c>
       <c r="H51">
         <v>180</v>
@@ -2022,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2030,7 +2034,7 @@
         <v>2</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2039,22 +2043,22 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>466.38</v>
+        <v>449</v>
       </c>
       <c r="F52">
-        <v>72.569999999999993</v>
+        <v>-70.48</v>
       </c>
       <c r="G52">
-        <v>385.04</v>
+        <v>174</v>
       </c>
       <c r="H52">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I52">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2062,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2074,19 +2078,19 @@
         <v>449</v>
       </c>
       <c r="F53">
-        <v>-29.28</v>
+        <v>-85.27</v>
       </c>
       <c r="G53">
         <v>174</v>
       </c>
       <c r="H53">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I53">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2094,7 +2098,7 @@
         <v>2</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2106,19 +2110,19 @@
         <v>449</v>
       </c>
       <c r="F54">
-        <v>-67.75</v>
+        <v>-100.61</v>
       </c>
       <c r="G54">
         <v>174</v>
       </c>
       <c r="H54">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I54">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2126,7 +2130,7 @@
         <v>2</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2138,19 +2142,19 @@
         <v>449</v>
       </c>
       <c r="F55">
-        <v>-110.15</v>
+        <v>-115.32</v>
       </c>
       <c r="G55">
         <v>174</v>
       </c>
       <c r="H55">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I55">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2158,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2170,19 +2174,19 @@
         <v>449</v>
       </c>
       <c r="F56">
-        <v>-159.35</v>
+        <v>-121.91</v>
       </c>
       <c r="G56">
         <v>174</v>
       </c>
       <c r="H56">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I56">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2190,7 +2194,7 @@
         <v>2</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2202,19 +2206,19 @@
         <v>449</v>
       </c>
       <c r="F57">
-        <v>-197.57</v>
+        <v>-122.68</v>
       </c>
       <c r="G57">
         <v>174</v>
       </c>
       <c r="H57">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I57">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2222,7 +2226,7 @@
         <v>2</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2234,19 +2238,19 @@
         <v>449</v>
       </c>
       <c r="F58">
-        <v>-237.97</v>
+        <v>-130.38999999999999</v>
       </c>
       <c r="G58">
         <v>174</v>
       </c>
       <c r="H58">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I58">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2254,7 +2258,7 @@
         <v>2</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2266,19 +2270,19 @@
         <v>449</v>
       </c>
       <c r="F59">
-        <v>-263.07</v>
+        <v>-138.07</v>
       </c>
       <c r="G59">
         <v>174</v>
       </c>
       <c r="H59">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I59">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2286,7 +2290,7 @@
         <v>2</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2298,19 +2302,19 @@
         <v>449</v>
       </c>
       <c r="F60">
-        <v>-161.28</v>
+        <v>-146.26</v>
       </c>
       <c r="G60">
         <v>174</v>
       </c>
       <c r="H60">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I60">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2318,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="B61">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2330,19 +2334,19 @@
         <v>449</v>
       </c>
       <c r="F61">
-        <v>-60.46</v>
+        <v>-155.36000000000001</v>
       </c>
       <c r="G61">
         <v>174</v>
       </c>
       <c r="H61">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I61">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2350,7 +2354,7 @@
         <v>2</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2362,19 +2366,19 @@
         <v>449</v>
       </c>
       <c r="F62">
-        <v>-68.510000000000005</v>
+        <v>-162.91999999999999</v>
       </c>
       <c r="G62">
         <v>174</v>
       </c>
       <c r="H62">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I62">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2382,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="B63">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2394,19 +2398,19 @@
         <v>449</v>
       </c>
       <c r="F63">
-        <v>-69.790000000000006</v>
+        <v>-172.68</v>
       </c>
       <c r="G63">
         <v>174</v>
       </c>
       <c r="H63">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I63">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2414,7 +2418,7 @@
         <v>2</v>
       </c>
       <c r="B64">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2426,19 +2430,19 @@
         <v>449</v>
       </c>
       <c r="F64">
-        <v>-71.72</v>
+        <v>-181.04</v>
       </c>
       <c r="G64">
         <v>174</v>
       </c>
       <c r="H64">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I64">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2446,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B65">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2458,19 +2462,19 @@
         <v>449</v>
       </c>
       <c r="F65">
-        <v>-72.459999999999994</v>
+        <v>-185</v>
       </c>
       <c r="G65">
         <v>174</v>
       </c>
       <c r="H65">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I65">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2478,7 +2482,7 @@
         <v>2</v>
       </c>
       <c r="B66">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2490,19 +2494,19 @@
         <v>449</v>
       </c>
       <c r="F66">
-        <v>-72.400000000000006</v>
+        <v>-179.37</v>
       </c>
       <c r="G66">
         <v>174</v>
       </c>
       <c r="H66">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I66">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -2510,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B67">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2522,19 +2526,19 @@
         <v>449</v>
       </c>
       <c r="F67">
-        <v>-73.069999999999993</v>
+        <v>-170.25</v>
       </c>
       <c r="G67">
         <v>174</v>
       </c>
       <c r="H67">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I67">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2542,7 +2546,7 @@
         <v>2</v>
       </c>
       <c r="B68">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2554,19 +2558,19 @@
         <v>449</v>
       </c>
       <c r="F68">
-        <v>-73.73</v>
+        <v>-162.03</v>
       </c>
       <c r="G68">
         <v>174</v>
       </c>
       <c r="H68">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I68">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -2574,7 +2578,7 @@
         <v>2</v>
       </c>
       <c r="B69">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2586,19 +2590,19 @@
         <v>449</v>
       </c>
       <c r="F69">
-        <v>-73.89</v>
+        <v>-148.78</v>
       </c>
       <c r="G69">
         <v>174</v>
       </c>
       <c r="H69">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I69">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -2606,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="B70">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2618,45 +2622,45 @@
         <v>449</v>
       </c>
       <c r="F70">
-        <v>-73.95</v>
+        <v>-134.02000000000001</v>
       </c>
       <c r="G70">
         <v>174</v>
       </c>
       <c r="H70">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I70">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B71">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>13.11</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -2670,31 +2674,31 @@
         <v>0</v>
       </c>
       <c r="B72">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C72">
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E72">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>-291</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>163.77000000000001</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -2702,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="B73">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -2711,13 +2715,13 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>535.79999999999995</v>
+        <v>536</v>
       </c>
       <c r="F73">
-        <v>-290.72000000000003</v>
+        <v>-291</v>
       </c>
       <c r="G73">
-        <v>158.83000000000001</v>
+        <v>161.63999999999999</v>
       </c>
       <c r="H73">
         <v>180</v>
@@ -2726,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>-270</v>
+        <v>179.99999</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -2734,22 +2738,22 @@
         <v>0</v>
       </c>
       <c r="B74">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C74">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>541.4</v>
+        <v>536</v>
       </c>
       <c r="F74">
-        <v>-187.16</v>
+        <v>-291</v>
       </c>
       <c r="G74">
-        <v>156.25</v>
+        <v>158.25</v>
       </c>
       <c r="H74">
         <v>180</v>
@@ -2766,31 +2770,31 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C75">
         <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>537.12</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>-187.68</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>158.16999999999999</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>-270</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -2798,31 +2802,31 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E76">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>-291</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>158.66999999999999</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>-270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -2830,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -2845,7 +2849,7 @@
         <v>-291</v>
       </c>
       <c r="G77">
-        <v>160.77000000000001</v>
+        <v>171.16</v>
       </c>
       <c r="H77">
         <v>180</v>
@@ -2862,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -2877,7 +2881,7 @@
         <v>-291</v>
       </c>
       <c r="G78">
-        <v>141.9</v>
+        <v>136.88</v>
       </c>
       <c r="H78">
         <v>180</v>
@@ -2894,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -2909,7 +2913,7 @@
         <v>-291</v>
       </c>
       <c r="G79">
-        <v>123.99</v>
+        <v>120.23</v>
       </c>
       <c r="H79">
         <v>180</v>
@@ -2926,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -2941,7 +2945,7 @@
         <v>-291</v>
       </c>
       <c r="G80">
-        <v>106.4</v>
+        <v>98.4</v>
       </c>
       <c r="H80">
         <v>180</v>
@@ -2958,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -2973,7 +2977,7 @@
         <v>-291</v>
       </c>
       <c r="G81">
-        <v>87.21</v>
+        <v>82</v>
       </c>
       <c r="H81">
         <v>180</v>
@@ -2990,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="B82">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -3022,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="B83">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -3054,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="B84">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -3063,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F84">
         <v>-291</v>
@@ -3078,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>179.99999</v>
+        <v>-270</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -3086,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -3118,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -3127,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F86">
         <v>-291</v>
@@ -3142,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>-270</v>
+        <v>-1.0000000003174099E-5</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -3150,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="B87">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -3182,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="B88">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -3197,7 +3201,7 @@
         <v>-291</v>
       </c>
       <c r="G88">
-        <v>82</v>
+        <v>89.46</v>
       </c>
       <c r="H88">
         <v>180</v>
@@ -3214,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="B89">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -3229,7 +3233,7 @@
         <v>-291</v>
       </c>
       <c r="G89">
-        <v>82</v>
+        <v>109.35</v>
       </c>
       <c r="H89">
         <v>180</v>
@@ -3246,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="B90">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -3261,7 +3265,7 @@
         <v>-291</v>
       </c>
       <c r="G90">
-        <v>88.31</v>
+        <v>142.88999999999999</v>
       </c>
       <c r="H90">
         <v>180</v>
@@ -3278,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="B91">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -3293,7 +3297,7 @@
         <v>-291</v>
       </c>
       <c r="G91">
-        <v>122.5</v>
+        <v>172.56</v>
       </c>
       <c r="H91">
         <v>180</v>
@@ -3310,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="B92">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -3319,13 +3323,13 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F92">
         <v>-291</v>
       </c>
       <c r="G92">
-        <v>159.34</v>
+        <v>170.39</v>
       </c>
       <c r="H92">
         <v>180</v>
@@ -3334,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>-1.0000000003174099E-5</v>
+        <v>89.999992370605</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3342,22 +3346,22 @@
         <v>0</v>
       </c>
       <c r="B93">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
         <v>1</v>
       </c>
       <c r="E93">
-        <v>536</v>
+        <v>538.26</v>
       </c>
       <c r="F93">
-        <v>-291</v>
+        <v>-188.81</v>
       </c>
       <c r="G93">
-        <v>154.77000000000001</v>
+        <v>156.47999999999999</v>
       </c>
       <c r="H93">
         <v>180</v>
@@ -3374,31 +3378,31 @@
         <v>0</v>
       </c>
       <c r="B94">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C94">
         <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E94">
-        <v>539.37</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>-187.24</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>156.79</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>89.999992370605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -3406,13 +3410,13 @@
         <v>0</v>
       </c>
       <c r="B95">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C95">
         <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3438,31 +3442,31 @@
         <v>0</v>
       </c>
       <c r="B96">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C96">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-291</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>160.38999999999999</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>89.999992370605</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -3470,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="B97">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -3485,7 +3489,7 @@
         <v>-291</v>
       </c>
       <c r="G97">
-        <v>161.16999999999999</v>
+        <v>159.53</v>
       </c>
       <c r="H97">
         <v>180</v>
@@ -3494,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>89.999992370605</v>
+        <v>179.99999</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -3502,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="B98">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -3517,7 +3521,7 @@
         <v>-291</v>
       </c>
       <c r="G98">
-        <v>162.72</v>
+        <v>82</v>
       </c>
       <c r="H98">
         <v>180</v>
@@ -3534,31 +3538,31 @@
         <v>0</v>
       </c>
       <c r="B99">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C99">
         <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E99">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>-291</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -3566,13 +3570,13 @@
         <v>0</v>
       </c>
       <c r="B100">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C100">
         <v>4</v>
       </c>
       <c r="D100" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -3595,28 +3599,28 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B101">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>12.02</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -3630,7 +3634,7 @@
         <v>2</v>
       </c>
       <c r="B102">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -3642,19 +3646,19 @@
         <v>449</v>
       </c>
       <c r="F102">
-        <v>-70.09</v>
+        <v>-73.540000000000006</v>
       </c>
       <c r="G102">
         <v>174</v>
       </c>
       <c r="H102">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I102">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -3662,7 +3666,7 @@
         <v>2</v>
       </c>
       <c r="B103">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -3674,19 +3678,19 @@
         <v>449</v>
       </c>
       <c r="F103">
-        <v>-99.35</v>
+        <v>-85.84</v>
       </c>
       <c r="G103">
         <v>174</v>
       </c>
       <c r="H103">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I103">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J103">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -3694,7 +3698,7 @@
         <v>2</v>
       </c>
       <c r="B104">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -3706,19 +3710,19 @@
         <v>449</v>
       </c>
       <c r="F104">
-        <v>-119.85</v>
+        <v>-99.32</v>
       </c>
       <c r="G104">
         <v>174</v>
       </c>
       <c r="H104">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I104">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -3726,7 +3730,7 @@
         <v>2</v>
       </c>
       <c r="B105">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -3738,19 +3742,19 @@
         <v>449</v>
       </c>
       <c r="F105">
-        <v>-161.33000000000001</v>
+        <v>-111.79</v>
       </c>
       <c r="G105">
         <v>174</v>
       </c>
       <c r="H105">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I105">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J105">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -3758,7 +3762,7 @@
         <v>2</v>
       </c>
       <c r="B106">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -3770,19 +3774,19 @@
         <v>449</v>
       </c>
       <c r="F106">
-        <v>-178.11</v>
+        <v>-126.5</v>
       </c>
       <c r="G106">
         <v>174</v>
       </c>
       <c r="H106">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I106">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J106">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -3790,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B107">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -3802,19 +3806,19 @@
         <v>449</v>
       </c>
       <c r="F107">
-        <v>-206.19</v>
+        <v>-138.34</v>
       </c>
       <c r="G107">
         <v>174</v>
       </c>
       <c r="H107">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I107">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -3822,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="B108">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -3831,22 +3835,22 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>449.27</v>
+        <v>449</v>
       </c>
       <c r="F108">
-        <v>-224.52</v>
+        <v>-162</v>
       </c>
       <c r="G108">
-        <v>174.21</v>
+        <v>174</v>
       </c>
       <c r="H108">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I108">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J108">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -3854,7 +3858,7 @@
         <v>2</v>
       </c>
       <c r="B109">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3866,19 +3870,19 @@
         <v>449</v>
       </c>
       <c r="F109">
-        <v>-242.2</v>
+        <v>-169.7</v>
       </c>
       <c r="G109">
         <v>174</v>
       </c>
       <c r="H109">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I109">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J109">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -3886,7 +3890,7 @@
         <v>2</v>
       </c>
       <c r="B110">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -3898,19 +3902,19 @@
         <v>449</v>
       </c>
       <c r="F110">
-        <v>-254.15</v>
+        <v>-179.04</v>
       </c>
       <c r="G110">
         <v>174</v>
       </c>
       <c r="H110">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I110">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J110">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -3918,7 +3922,7 @@
         <v>2</v>
       </c>
       <c r="B111">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -3930,45 +3934,45 @@
         <v>449</v>
       </c>
       <c r="F111">
-        <v>-67.319999999999993</v>
+        <v>-185</v>
       </c>
       <c r="G111">
         <v>174</v>
       </c>
       <c r="H111">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I111">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J111">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B112">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>-185</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -3979,25 +3983,25 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B113">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D113" t="s">
         <v>1</v>
       </c>
       <c r="E113">
-        <v>536</v>
+        <v>449</v>
       </c>
       <c r="F113">
-        <v>-291</v>
+        <v>-185</v>
       </c>
       <c r="G113">
-        <v>160.88</v>
+        <v>174</v>
       </c>
       <c r="H113">
         <v>180</v>
@@ -4006,30 +4010,30 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B114">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="C114">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D114" t="s">
         <v>1</v>
       </c>
       <c r="E114">
-        <v>536</v>
+        <v>449</v>
       </c>
       <c r="F114">
-        <v>-291</v>
+        <v>-184.22</v>
       </c>
       <c r="G114">
-        <v>159.05000000000001</v>
+        <v>174</v>
       </c>
       <c r="H114">
         <v>180</v>
@@ -4038,30 +4042,30 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>-270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B115">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="C115">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D115" t="s">
         <v>1</v>
       </c>
       <c r="E115">
-        <v>541.42999999999995</v>
+        <v>449</v>
       </c>
       <c r="F115">
-        <v>-186.72</v>
+        <v>-174.65</v>
       </c>
       <c r="G115">
-        <v>157.27000000000001</v>
+        <v>174</v>
       </c>
       <c r="H115">
         <v>180</v>
@@ -4070,33 +4074,33 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>-270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B116">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="C116">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>-166.07</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -4107,25 +4111,25 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B117">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C117">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D117" t="s">
         <v>1</v>
       </c>
       <c r="E117">
-        <v>536</v>
+        <v>449</v>
       </c>
       <c r="F117">
-        <v>-291</v>
+        <v>-153.02000000000001</v>
       </c>
       <c r="G117">
-        <v>159.52000000000001</v>
+        <v>174</v>
       </c>
       <c r="H117">
         <v>180</v>
@@ -4134,30 +4138,30 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>-270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B118">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D118" t="s">
         <v>1</v>
       </c>
       <c r="E118">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="F118">
-        <v>-291</v>
+        <v>-135.76</v>
       </c>
       <c r="G118">
-        <v>159.63</v>
+        <v>174</v>
       </c>
       <c r="H118">
         <v>180</v>
@@ -4166,30 +4170,30 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B119">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D119" t="s">
         <v>1</v>
       </c>
       <c r="E119">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="F119">
-        <v>-291</v>
+        <v>-119.38</v>
       </c>
       <c r="G119">
-        <v>142.9</v>
+        <v>174</v>
       </c>
       <c r="H119">
         <v>180</v>
@@ -4198,30 +4202,30 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B120">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C120">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D120" t="s">
         <v>1</v>
       </c>
       <c r="E120">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="F120">
-        <v>-291</v>
+        <v>-96.31</v>
       </c>
       <c r="G120">
-        <v>122.68</v>
+        <v>174</v>
       </c>
       <c r="H120">
         <v>180</v>
@@ -4230,30 +4234,30 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B121">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="C121">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D121" t="s">
         <v>1</v>
       </c>
       <c r="E121">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="F121">
-        <v>-291</v>
+        <v>-71.62</v>
       </c>
       <c r="G121">
-        <v>107.66</v>
+        <v>174</v>
       </c>
       <c r="H121">
         <v>180</v>
@@ -4262,30 +4266,30 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B122">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D122" t="s">
         <v>1</v>
       </c>
       <c r="E122">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="F122">
-        <v>-291</v>
+        <v>-45.23</v>
       </c>
       <c r="G122">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="H122">
         <v>180</v>
@@ -4294,30 +4298,30 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B123">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D123" t="s">
         <v>1</v>
       </c>
       <c r="E123">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="F123">
-        <v>-291</v>
+        <v>-17.12</v>
       </c>
       <c r="G123">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="H123">
         <v>180</v>
@@ -4326,1507 +4330,7 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>179.99999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B124">
-        <v>92</v>
-      </c>
-      <c r="C124">
-        <v>4</v>
-      </c>
-      <c r="D124" t="s">
-        <v>1</v>
-      </c>
-      <c r="E124">
-        <v>538</v>
-      </c>
-      <c r="F124">
-        <v>-291</v>
-      </c>
-      <c r="G124">
-        <v>82</v>
-      </c>
-      <c r="H124">
-        <v>180</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124">
-        <v>179.99999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B125">
-        <v>93</v>
-      </c>
-      <c r="C125">
-        <v>4</v>
-      </c>
-      <c r="D125" t="s">
-        <v>1</v>
-      </c>
-      <c r="E125">
-        <v>536</v>
-      </c>
-      <c r="F125">
-        <v>-291</v>
-      </c>
-      <c r="G125">
-        <v>82</v>
-      </c>
-      <c r="H125">
-        <v>180</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125">
-        <v>-270</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126">
-        <v>94</v>
-      </c>
-      <c r="C126">
-        <v>4</v>
-      </c>
-      <c r="D126" t="s">
-        <v>1</v>
-      </c>
-      <c r="E126">
-        <v>536</v>
-      </c>
-      <c r="F126">
-        <v>-291</v>
-      </c>
-      <c r="G126">
-        <v>82</v>
-      </c>
-      <c r="H126">
-        <v>180</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126">
-        <v>-270</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127">
-        <v>95</v>
-      </c>
-      <c r="C127">
-        <v>4</v>
-      </c>
-      <c r="D127" t="s">
-        <v>1</v>
-      </c>
-      <c r="E127">
-        <v>536</v>
-      </c>
-      <c r="F127">
-        <v>-291</v>
-      </c>
-      <c r="G127">
-        <v>82</v>
-      </c>
-      <c r="H127">
-        <v>180</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127">
-        <v>-270</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>0</v>
-      </c>
-      <c r="B128">
-        <v>96</v>
-      </c>
-      <c r="C128">
-        <v>4</v>
-      </c>
-      <c r="D128" t="s">
-        <v>1</v>
-      </c>
-      <c r="E128">
-        <v>536</v>
-      </c>
-      <c r="F128">
-        <v>-291</v>
-      </c>
-      <c r="G128">
-        <v>93.03</v>
-      </c>
-      <c r="H128">
-        <v>180</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128">
-        <v>-270</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129">
-        <v>97</v>
-      </c>
-      <c r="C129">
-        <v>4</v>
-      </c>
-      <c r="D129" t="s">
-        <v>1</v>
-      </c>
-      <c r="E129">
-        <v>536</v>
-      </c>
-      <c r="F129">
-        <v>-291</v>
-      </c>
-      <c r="G129">
-        <v>121.45</v>
-      </c>
-      <c r="H129">
-        <v>180</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129">
-        <v>-270</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>0</v>
-      </c>
-      <c r="B130">
-        <v>98</v>
-      </c>
-      <c r="C130">
-        <v>4</v>
-      </c>
-      <c r="D130" t="s">
-        <v>1</v>
-      </c>
-      <c r="E130">
-        <v>536</v>
-      </c>
-      <c r="F130">
-        <v>-291</v>
-      </c>
-      <c r="G130">
-        <v>162.4</v>
-      </c>
-      <c r="H130">
-        <v>180</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130">
-        <v>-270</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>0</v>
-      </c>
-      <c r="B131">
-        <v>99</v>
-      </c>
-      <c r="C131">
-        <v>10</v>
-      </c>
-      <c r="D131" t="s">
-        <v>1</v>
-      </c>
-      <c r="E131">
-        <v>538.97</v>
-      </c>
-      <c r="F131">
-        <v>-189.4</v>
-      </c>
-      <c r="G131">
-        <v>153.94</v>
-      </c>
-      <c r="H131">
-        <v>180</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131">
-        <v>-270</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>0</v>
-      </c>
-      <c r="B132">
-        <v>100</v>
-      </c>
-      <c r="C132">
-        <v>10</v>
-      </c>
-      <c r="D132" t="s">
-        <v>5</v>
-      </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>0</v>
-      </c>
-      <c r="B133">
-        <v>101</v>
-      </c>
-      <c r="C133">
-        <v>10</v>
-      </c>
-      <c r="D133" t="s">
-        <v>4</v>
-      </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>438</v>
-      </c>
-      <c r="B134">
-        <v>-98</v>
-      </c>
-      <c r="C134">
-        <v>68</v>
-      </c>
-      <c r="D134">
-        <v>-180</v>
-      </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>424</v>
-      </c>
-      <c r="B135">
-        <v>-95</v>
-      </c>
-      <c r="C135">
-        <v>68</v>
-      </c>
-      <c r="D135">
-        <v>-180</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>418</v>
-      </c>
-      <c r="B136">
-        <v>-92</v>
-      </c>
-      <c r="C136">
-        <v>69</v>
-      </c>
-      <c r="D136">
-        <v>-180</v>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>404</v>
-      </c>
-      <c r="B137">
-        <v>-87</v>
-      </c>
-      <c r="C137">
-        <v>71</v>
-      </c>
-      <c r="D137">
-        <v>-180</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>401</v>
-      </c>
-      <c r="B138">
-        <v>-79</v>
-      </c>
-      <c r="C138">
-        <v>71</v>
-      </c>
-      <c r="D138">
-        <v>-180</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>397</v>
-      </c>
-      <c r="B139">
-        <v>-78</v>
-      </c>
-      <c r="C139">
-        <v>69</v>
-      </c>
-      <c r="D139">
-        <v>-180</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>386</v>
-      </c>
-      <c r="B140">
-        <v>-74</v>
-      </c>
-      <c r="C140">
-        <v>68</v>
-      </c>
-      <c r="D140">
-        <v>-180</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>391</v>
-      </c>
-      <c r="B141">
-        <v>-71</v>
-      </c>
-      <c r="C141">
-        <v>69</v>
-      </c>
-      <c r="D141">
-        <v>-180</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>390</v>
-      </c>
-      <c r="B142">
-        <v>-63</v>
-      </c>
-      <c r="C142">
-        <v>110</v>
-      </c>
-      <c r="D142">
-        <v>-180</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>431</v>
-      </c>
-      <c r="B143">
-        <v>-65</v>
-      </c>
-      <c r="C143">
-        <v>112</v>
-      </c>
-      <c r="D143">
-        <v>-180</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>462</v>
-      </c>
-      <c r="B144">
-        <v>-66</v>
-      </c>
-      <c r="C144">
-        <v>80</v>
-      </c>
-      <c r="D144">
-        <v>-180</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>460</v>
-      </c>
-      <c r="B145">
-        <v>-68</v>
-      </c>
-      <c r="C145">
-        <v>71</v>
-      </c>
-      <c r="D145">
-        <v>-180</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>460</v>
-      </c>
-      <c r="B146">
-        <v>-69</v>
-      </c>
-      <c r="C146">
-        <v>68</v>
-      </c>
-      <c r="D146">
-        <v>-180</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>461</v>
-      </c>
-      <c r="B147">
-        <v>-77</v>
-      </c>
-      <c r="C147">
-        <v>67</v>
-      </c>
-      <c r="D147">
-        <v>-180</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>464</v>
-      </c>
-      <c r="B148">
-        <v>-88</v>
-      </c>
-      <c r="C148">
-        <v>67</v>
-      </c>
-      <c r="D148">
-        <v>-180</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>463</v>
-      </c>
-      <c r="B149">
-        <v>-100</v>
-      </c>
-      <c r="C149">
-        <v>68</v>
-      </c>
-      <c r="D149">
-        <v>-180</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>468</v>
-      </c>
-      <c r="B150">
-        <v>-107</v>
-      </c>
-      <c r="C150">
-        <v>68</v>
-      </c>
-      <c r="D150">
-        <v>-180</v>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>471</v>
-      </c>
-      <c r="B151">
-        <v>-112</v>
-      </c>
-      <c r="C151">
-        <v>70</v>
-      </c>
-      <c r="D151">
-        <v>-180</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>471</v>
-      </c>
-      <c r="B152">
-        <v>-112</v>
-      </c>
-      <c r="C152">
-        <v>74</v>
-      </c>
-      <c r="D152">
-        <v>-180</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>470</v>
-      </c>
-      <c r="B153">
-        <v>-102</v>
-      </c>
-      <c r="C153">
-        <v>106</v>
-      </c>
-      <c r="D153">
-        <v>-180</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>498</v>
-      </c>
-      <c r="B154">
-        <v>-116</v>
-      </c>
-      <c r="C154">
-        <v>91</v>
-      </c>
-      <c r="D154">
-        <v>-180</v>
-      </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>506</v>
-      </c>
-      <c r="B155">
-        <v>-118</v>
-      </c>
-      <c r="C155">
-        <v>77</v>
-      </c>
-      <c r="D155">
-        <v>-180</v>
-      </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>508</v>
-      </c>
-      <c r="B156">
-        <v>-119</v>
-      </c>
-      <c r="C156">
-        <v>71</v>
-      </c>
-      <c r="D156">
-        <v>-180</v>
-      </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>510</v>
-      </c>
-      <c r="B157">
-        <v>-117</v>
-      </c>
-      <c r="C157">
-        <v>69</v>
-      </c>
-      <c r="D157">
-        <v>-180</v>
-      </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="F157">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>513</v>
-      </c>
-      <c r="B158">
-        <v>-124</v>
-      </c>
-      <c r="C158">
-        <v>68</v>
-      </c>
-      <c r="D158">
-        <v>-180</v>
-      </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>517</v>
-      </c>
-      <c r="B159">
-        <v>-132</v>
-      </c>
-      <c r="C159">
-        <v>68</v>
-      </c>
-      <c r="D159">
-        <v>-180</v>
-      </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-      <c r="F159">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>523</v>
-      </c>
-      <c r="B160">
-        <v>-138</v>
-      </c>
-      <c r="C160">
-        <v>69</v>
-      </c>
-      <c r="D160">
-        <v>-180</v>
-      </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>521</v>
-      </c>
-      <c r="B161">
-        <v>-143</v>
-      </c>
-      <c r="C161">
-        <v>70</v>
-      </c>
-      <c r="D161">
-        <v>-180</v>
-      </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-      <c r="F161">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>519</v>
-      </c>
-      <c r="B162">
-        <v>-146</v>
-      </c>
-      <c r="C162">
-        <v>71</v>
-      </c>
-      <c r="D162">
-        <v>-180</v>
-      </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-      <c r="F162">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>512</v>
-      </c>
-      <c r="B163">
-        <v>-142</v>
-      </c>
-      <c r="C163">
-        <v>71</v>
-      </c>
-      <c r="D163">
-        <v>-180</v>
-      </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-      <c r="F163">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>510</v>
-      </c>
-      <c r="B164">
-        <v>-142</v>
-      </c>
-      <c r="C164">
-        <v>68</v>
-      </c>
-      <c r="D164">
-        <v>-180</v>
-      </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-      <c r="F164">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>500</v>
-      </c>
-      <c r="B165">
-        <v>-138</v>
-      </c>
-      <c r="C165">
-        <v>68</v>
-      </c>
-      <c r="D165">
-        <v>-180</v>
-      </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-      <c r="F165">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>492</v>
-      </c>
-      <c r="B166">
-        <v>-132</v>
-      </c>
-      <c r="C166">
-        <v>66</v>
-      </c>
-      <c r="D166">
-        <v>-180</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>489</v>
-      </c>
-      <c r="B167">
-        <v>-131</v>
-      </c>
-      <c r="C167">
-        <v>68</v>
-      </c>
-      <c r="D167">
-        <v>-180</v>
-      </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>482</v>
-      </c>
-      <c r="B168">
-        <v>-133</v>
-      </c>
-      <c r="C168">
-        <v>66</v>
-      </c>
-      <c r="D168">
-        <v>-180</v>
-      </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>469</v>
-      </c>
-      <c r="B169">
-        <v>-132</v>
-      </c>
-      <c r="C169">
-        <v>67</v>
-      </c>
-      <c r="D169">
-        <v>-180</v>
-      </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-      <c r="F169">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>463</v>
-      </c>
-      <c r="B170">
-        <v>-133</v>
-      </c>
-      <c r="C170">
-        <v>67</v>
-      </c>
-      <c r="D170">
-        <v>-180</v>
-      </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-      <c r="F170">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>449</v>
-      </c>
-      <c r="B171">
-        <v>-132</v>
-      </c>
-      <c r="C171">
-        <v>71</v>
-      </c>
-      <c r="D171">
-        <v>-180</v>
-      </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-      <c r="F171">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>440</v>
-      </c>
-      <c r="B172">
-        <v>-134</v>
-      </c>
-      <c r="C172">
-        <v>70</v>
-      </c>
-      <c r="D172">
-        <v>-180</v>
-      </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-      <c r="F172">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>432</v>
-      </c>
-      <c r="B173">
-        <v>-134</v>
-      </c>
-      <c r="C173">
-        <v>67</v>
-      </c>
-      <c r="D173">
-        <v>-180</v>
-      </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-      <c r="F173">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>421</v>
-      </c>
-      <c r="B174">
-        <v>-135</v>
-      </c>
-      <c r="C174">
-        <v>66</v>
-      </c>
-      <c r="D174">
-        <v>-180</v>
-      </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-      <c r="F174">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>404</v>
-      </c>
-      <c r="B175">
-        <v>-134</v>
-      </c>
-      <c r="C175">
-        <v>67</v>
-      </c>
-      <c r="D175">
-        <v>-180</v>
-      </c>
-      <c r="E175">
-        <v>0</v>
-      </c>
-      <c r="F175">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>392</v>
-      </c>
-      <c r="B176">
-        <v>-135</v>
-      </c>
-      <c r="C176">
-        <v>67</v>
-      </c>
-      <c r="D176">
-        <v>-180</v>
-      </c>
-      <c r="E176">
-        <v>0</v>
-      </c>
-      <c r="F176">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>384</v>
-      </c>
-      <c r="B177">
-        <v>-133</v>
-      </c>
-      <c r="C177">
-        <v>69</v>
-      </c>
-      <c r="D177">
-        <v>-180</v>
-      </c>
-      <c r="E177">
-        <v>0</v>
-      </c>
-      <c r="F177">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>390</v>
-      </c>
-      <c r="B178">
-        <v>-126</v>
-      </c>
-      <c r="C178">
-        <v>67</v>
-      </c>
-      <c r="D178">
-        <v>-180</v>
-      </c>
-      <c r="E178">
-        <v>0</v>
-      </c>
-      <c r="F178">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>395</v>
-      </c>
-      <c r="B179">
-        <v>-121</v>
-      </c>
-      <c r="C179">
-        <v>67</v>
-      </c>
-      <c r="D179">
-        <v>-180</v>
-      </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
-      <c r="F179">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>390</v>
-      </c>
-      <c r="B180">
-        <v>-115</v>
-      </c>
-      <c r="C180">
-        <v>109</v>
-      </c>
-      <c r="D180">
-        <v>-180</v>
-      </c>
-      <c r="E180">
-        <v>0</v>
-      </c>
-      <c r="F180">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>440</v>
-      </c>
-      <c r="B181">
-        <v>-114</v>
-      </c>
-      <c r="C181">
-        <v>101</v>
-      </c>
-      <c r="D181">
-        <v>-180</v>
-      </c>
-      <c r="E181">
-        <v>0</v>
-      </c>
-      <c r="F181">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>449</v>
-      </c>
-      <c r="B182">
-        <v>-113</v>
-      </c>
-      <c r="C182">
-        <v>75</v>
-      </c>
-      <c r="D182">
-        <v>-180</v>
-      </c>
-      <c r="E182">
-        <v>0</v>
-      </c>
-      <c r="F182">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>450</v>
-      </c>
-      <c r="B183">
-        <v>-115</v>
-      </c>
-      <c r="C183">
-        <v>69</v>
-      </c>
-      <c r="D183">
-        <v>-180</v>
-      </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-      <c r="F183">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>450</v>
-      </c>
-      <c r="B184">
-        <v>-118</v>
-      </c>
-      <c r="C184">
-        <v>67</v>
-      </c>
-      <c r="D184">
-        <v>-180</v>
-      </c>
-      <c r="E184">
-        <v>0</v>
-      </c>
-      <c r="F184">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>452</v>
-      </c>
-      <c r="B185">
-        <v>-126</v>
-      </c>
-      <c r="C185">
-        <v>68</v>
-      </c>
-      <c r="D185">
-        <v>-180</v>
-      </c>
-      <c r="E185">
-        <v>0</v>
-      </c>
-      <c r="F185">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>455</v>
-      </c>
-      <c r="B186">
-        <v>-136</v>
-      </c>
-      <c r="C186">
-        <v>69</v>
-      </c>
-      <c r="D186">
-        <v>-180</v>
-      </c>
-      <c r="E186">
-        <v>0</v>
-      </c>
-      <c r="F186">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>460</v>
-      </c>
-      <c r="B187">
-        <v>-151</v>
-      </c>
-      <c r="C187">
-        <v>68</v>
-      </c>
-      <c r="D187">
-        <v>-180</v>
-      </c>
-      <c r="E187">
-        <v>0</v>
-      </c>
-      <c r="F187">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>461</v>
-      </c>
-      <c r="B188">
-        <v>-158</v>
-      </c>
-      <c r="C188">
-        <v>68</v>
-      </c>
-      <c r="D188">
-        <v>-180</v>
-      </c>
-      <c r="E188">
-        <v>0</v>
-      </c>
-      <c r="F188">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>460</v>
-      </c>
-      <c r="B189">
-        <v>-164</v>
-      </c>
-      <c r="C189">
-        <v>69</v>
-      </c>
-      <c r="D189">
-        <v>-180</v>
-      </c>
-      <c r="E189">
-        <v>0</v>
-      </c>
-      <c r="F189">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>467</v>
-      </c>
-      <c r="B190">
-        <v>-162</v>
-      </c>
-      <c r="C190">
-        <v>94</v>
-      </c>
-      <c r="D190">
-        <v>-180</v>
-      </c>
-      <c r="E190">
-        <v>0</v>
-      </c>
-      <c r="F190">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>443</v>
-      </c>
-      <c r="B191">
-        <v>-154</v>
-      </c>
-      <c r="C191">
-        <v>186</v>
-      </c>
-      <c r="D191">
-        <v>-180</v>
-      </c>
-      <c r="E191">
-        <v>0</v>
-      </c>
-      <c r="F191">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>449</v>
-      </c>
-      <c r="B192">
-        <v>-57</v>
-      </c>
-      <c r="C192">
-        <v>215</v>
-      </c>
-      <c r="D192">
-        <v>-180</v>
-      </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-      <c r="F192">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
